--- a/dados/DadosCopaDoMundoQatar2022.xlsx
+++ b/dados/DadosCopaDoMundoQatar2022.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://paccar-my.sharepoint.com/personal/emanuel_neves_paccar_com/Documents/Documents/WorldCupSimulator/dados/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{62B1251A-DB48-4798-A108-B5328F2DB5FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E7031358-0967-4A1B-BC62-99CB0EFE379E}"/>
+  <xr:revisionPtr revIDLastSave="40" documentId="13_ncr:1_{62B1251A-DB48-4798-A108-B5328F2DB5FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{05F12033-B8DA-4CA0-80BB-BFDA97FB6B4E}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="10944" yWindow="1560" windowWidth="11172" windowHeight="9060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="selecoes" sheetId="3" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="263">
   <si>
     <t>South Korea</t>
   </si>
@@ -487,9 +487,6 @@
     <t>https://cloudinary.fifa.com/api/v3/picture/flags-sq-2/BEL?tx=c_fill,g_auto,q_auto</t>
   </si>
   <si>
-    <t>https://flagdownload.com/wp-content/uploads/Flag_of_Belgium_Flat_Round_Corner-512x512.png</t>
-  </si>
-  <si>
     <t>Kevin De Bruyne</t>
   </si>
   <si>
@@ -550,9 +547,6 @@
     <t>https://cloudinary.fifa.com/api/v3/picture/flags-sq-2/BRA?tx=c_fill,g_auto,q_auto</t>
   </si>
   <si>
-    <t>https://flagdownload.com/wp-content/uploads/Flag_of_Brazil_Flat_Round_Corner-512x512.png</t>
-  </si>
-  <si>
     <t>Neymar Jr.</t>
   </si>
   <si>
@@ -823,7 +817,16 @@
     <t>https://github.com/ricardorocha86/PrevisaoEsportiva/blob/main/FotoJogadores/Slide31.JPG?raw=true</t>
   </si>
   <si>
-    <t>SeleçãoemInglês</t>
+    <t>SeleçãoPT</t>
+  </si>
+  <si>
+    <t>USA</t>
+  </si>
+  <si>
+    <t>https://cloudinary.fifa.com/api/v1/picture/flags-sq-2/BRA?tx=c_fill,g_auto,q_auto,w_70,h_46</t>
+  </si>
+  <si>
+    <t>https://cloudinary.fifa.com/api/v1/picture/flags-sq-2/BEL?tx=c_fill,g_auto,q_auto,w_70,h_46</t>
   </si>
 </sst>
 </file>
@@ -1169,8 +1172,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+      <selection activeCell="V9" sqref="V9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
@@ -1185,14 +1188,16 @@
     <col min="8" max="8" width="14.33203125" style="11" customWidth="1"/>
     <col min="9" max="9" width="9.88671875" style="11" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="22.33203125" style="11" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="25.88671875" style="11" customWidth="1"/>
+    <col min="11" max="11" width="25.88671875" style="11" customWidth="1"/>
+    <col min="12" max="12" width="15.109375" style="11" customWidth="1"/>
+    <col min="13" max="13" width="92.88671875" style="11" bestFit="1" customWidth="1"/>
     <col min="14" max="18" width="8.6640625" style="11" customWidth="1"/>
     <col min="19" max="16384" width="14.44140625" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="10" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
-        <v>36</v>
+        <v>259</v>
       </c>
       <c r="B1" s="10" t="s">
         <v>37</v>
@@ -1201,19 +1206,19 @@
         <v>38</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>261</v>
+        <v>36</v>
       </c>
       <c r="E1" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="H1" s="10" t="s">
         <v>226</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>227</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>225</v>
-      </c>
-      <c r="H1" s="10" t="s">
-        <v>228</v>
       </c>
       <c r="I1" s="10" t="s">
         <v>39</v>
@@ -1225,10 +1230,10 @@
         <v>41</v>
       </c>
       <c r="L1" s="10" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="M1" s="10" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.35">
@@ -1263,7 +1268,7 @@
         <v>47</v>
       </c>
       <c r="K2" s="11" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="L2" s="11" t="s">
         <v>45</v>
@@ -1304,7 +1309,7 @@
         <v>52</v>
       </c>
       <c r="K3" s="11" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="L3" s="11" t="s">
         <v>50</v>
@@ -1345,7 +1350,7 @@
         <v>56</v>
       </c>
       <c r="K4" s="11" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="L4" s="11" t="s">
         <v>54</v>
@@ -1386,7 +1391,7 @@
         <v>61</v>
       </c>
       <c r="K5" s="11" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="L5" s="11" t="s">
         <v>59</v>
@@ -1427,7 +1432,7 @@
         <v>67</v>
       </c>
       <c r="K6" s="11" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="L6" s="11" t="s">
         <v>65</v>
@@ -1468,7 +1473,7 @@
         <v>72</v>
       </c>
       <c r="K7" s="11" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="L7" s="11" t="s">
         <v>70</v>
@@ -1509,7 +1514,7 @@
         <v>78</v>
       </c>
       <c r="K8" s="11" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="L8" s="11" t="s">
         <v>76</v>
@@ -1550,7 +1555,7 @@
         <v>83</v>
       </c>
       <c r="K9" s="11" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="L9" s="11" t="s">
         <v>81</v>
@@ -1591,7 +1596,7 @@
         <v>88</v>
       </c>
       <c r="K10" s="11" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="L10" s="11" t="s">
         <v>86</v>
@@ -1632,7 +1637,7 @@
         <v>93</v>
       </c>
       <c r="K11" s="11" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="L11" s="11" t="s">
         <v>91</v>
@@ -1673,7 +1678,7 @@
         <v>98</v>
       </c>
       <c r="K12" s="11" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="L12" s="11" t="s">
         <v>96</v>
@@ -1714,7 +1719,7 @@
         <v>103</v>
       </c>
       <c r="K13" s="11" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="L13" s="11" t="s">
         <v>101</v>
@@ -1755,7 +1760,7 @@
         <v>109</v>
       </c>
       <c r="K14" s="11" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="L14" s="11" t="s">
         <v>107</v>
@@ -1796,7 +1801,7 @@
         <v>114</v>
       </c>
       <c r="K15" s="11" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="L15" s="11" t="s">
         <v>112</v>
@@ -1837,7 +1842,7 @@
         <v>119</v>
       </c>
       <c r="K16" s="11" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="L16" s="11" t="s">
         <v>117</v>
@@ -1878,7 +1883,7 @@
         <v>124</v>
       </c>
       <c r="K17" s="11" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="L17" s="11" t="s">
         <v>122</v>
@@ -1919,7 +1924,7 @@
         <v>130</v>
       </c>
       <c r="K18" s="11" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="L18" s="11" t="s">
         <v>128</v>
@@ -1960,7 +1965,7 @@
         <v>135</v>
       </c>
       <c r="K19" s="11" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="L19" s="11" t="s">
         <v>133</v>
@@ -2001,7 +2006,7 @@
         <v>140</v>
       </c>
       <c r="K20" s="11" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="L20" s="11" t="s">
         <v>138</v>
@@ -2042,7 +2047,7 @@
         <v>144</v>
       </c>
       <c r="K21" s="11" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="L21" s="11" t="s">
         <v>142</v>
@@ -2080,27 +2085,27 @@
         <v>0</v>
       </c>
       <c r="J22" s="11" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K22" s="11" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="L22" s="11" t="s">
         <v>148</v>
       </c>
       <c r="M22" s="11" t="s">
-        <v>149</v>
+        <v>262</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A23" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B23" s="11" t="s">
         <v>146</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D23" s="11" t="s">
         <v>14</v>
@@ -2121,27 +2126,27 @@
         <v>0</v>
       </c>
       <c r="J23" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="K23" s="11" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="L23" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="M23" s="11" t="s">
         <v>153</v>
-      </c>
-      <c r="M23" s="11" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A24" s="11" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B24" s="11" t="s">
         <v>146</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D24" s="11" t="s">
         <v>9</v>
@@ -2162,27 +2167,27 @@
         <v>0</v>
       </c>
       <c r="J24" s="11" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K24" s="11" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="L24" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="M24" s="11" t="s">
         <v>158</v>
-      </c>
-      <c r="M24" s="11" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A25" s="11" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B25" s="11" t="s">
         <v>146</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D25" s="11" t="s">
         <v>30</v>
@@ -2203,27 +2208,27 @@
         <v>0</v>
       </c>
       <c r="J25" s="11" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="K25" s="11" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="L25" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="M25" s="11" t="s">
         <v>163</v>
-      </c>
-      <c r="M25" s="11" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A26" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="B26" s="11" t="s">
         <v>166</v>
       </c>
-      <c r="B26" s="11" t="s">
+      <c r="C26" s="11" t="s">
         <v>167</v>
-      </c>
-      <c r="C26" s="11" t="s">
-        <v>168</v>
       </c>
       <c r="D26" s="11" t="s">
         <v>17</v>
@@ -2244,27 +2249,27 @@
         <v>5</v>
       </c>
       <c r="J26" s="11" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="K26" s="11" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="L26" s="11" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="M26" s="11" t="s">
-        <v>170</v>
+        <v>261</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A27" s="11" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D27" s="11" t="s">
         <v>32</v>
@@ -2285,27 +2290,27 @@
         <v>0</v>
       </c>
       <c r="J27" s="11" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="K27" s="11" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="L27" s="11" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="M27" s="11" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A28" s="11" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D28" s="11" t="s">
         <v>34</v>
@@ -2326,27 +2331,27 @@
         <v>0</v>
       </c>
       <c r="J28" s="11" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="K28" s="11" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="L28" s="11" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="M28" s="11" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A29" s="11" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D29" s="11" t="s">
         <v>11</v>
@@ -2367,16 +2372,16 @@
         <v>0</v>
       </c>
       <c r="J29" s="11" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="K29" s="11" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="L29" s="11" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="M29" s="11" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.35">
@@ -2384,10 +2389,10 @@
         <v>25</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D30" s="11" t="s">
         <v>25</v>
@@ -2408,27 +2413,27 @@
         <v>0</v>
       </c>
       <c r="J30" s="11" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K30" s="11" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="L30" s="11" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="M30" s="11" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A31" s="11" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D31" s="11" t="s">
         <v>10</v>
@@ -2449,27 +2454,27 @@
         <v>0</v>
       </c>
       <c r="J31" s="11" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="K31" s="11" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="L31" s="11" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="M31" s="11" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A32" s="11" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D32" s="11" t="s">
         <v>20</v>
@@ -2490,27 +2495,27 @@
         <v>2</v>
       </c>
       <c r="J32" s="11" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K32" s="11" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="L32" s="11" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="M32" s="11" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A33" s="11" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D33" s="11" t="s">
         <v>0</v>
@@ -2531,16 +2536,16 @@
         <v>0</v>
       </c>
       <c r="J33" s="11" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="K33" s="11" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="L33" s="11" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="M33" s="11" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
   </sheetData>
@@ -2551,104 +2556,102 @@
   </autoFilter>
   <hyperlinks>
     <hyperlink ref="L2" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
-    <hyperlink ref="M2" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
-    <hyperlink ref="L3" r:id="rId3" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
-    <hyperlink ref="M3" r:id="rId4" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
-    <hyperlink ref="L4" r:id="rId5" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
-    <hyperlink ref="M4" r:id="rId6" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
-    <hyperlink ref="L5" r:id="rId7" xr:uid="{00000000-0004-0000-0200-000006000000}"/>
-    <hyperlink ref="M5" r:id="rId8" xr:uid="{00000000-0004-0000-0200-000007000000}"/>
-    <hyperlink ref="L6" r:id="rId9" xr:uid="{00000000-0004-0000-0200-000008000000}"/>
-    <hyperlink ref="M6" r:id="rId10" xr:uid="{00000000-0004-0000-0200-000009000000}"/>
-    <hyperlink ref="L7" r:id="rId11" xr:uid="{00000000-0004-0000-0200-00000A000000}"/>
-    <hyperlink ref="M7" r:id="rId12" xr:uid="{00000000-0004-0000-0200-00000B000000}"/>
-    <hyperlink ref="L8" r:id="rId13" xr:uid="{00000000-0004-0000-0200-00000C000000}"/>
-    <hyperlink ref="M8" r:id="rId14" xr:uid="{00000000-0004-0000-0200-00000D000000}"/>
-    <hyperlink ref="L9" r:id="rId15" xr:uid="{00000000-0004-0000-0200-00000E000000}"/>
-    <hyperlink ref="M9" r:id="rId16" xr:uid="{00000000-0004-0000-0200-00000F000000}"/>
-    <hyperlink ref="L10" r:id="rId17" xr:uid="{00000000-0004-0000-0200-000010000000}"/>
-    <hyperlink ref="M10" r:id="rId18" xr:uid="{00000000-0004-0000-0200-000011000000}"/>
-    <hyperlink ref="L11" r:id="rId19" xr:uid="{00000000-0004-0000-0200-000012000000}"/>
-    <hyperlink ref="M11" r:id="rId20" xr:uid="{00000000-0004-0000-0200-000013000000}"/>
-    <hyperlink ref="L12" r:id="rId21" xr:uid="{00000000-0004-0000-0200-000014000000}"/>
-    <hyperlink ref="M12" r:id="rId22" xr:uid="{00000000-0004-0000-0200-000015000000}"/>
-    <hyperlink ref="L13" r:id="rId23" xr:uid="{00000000-0004-0000-0200-000016000000}"/>
-    <hyperlink ref="M13" r:id="rId24" xr:uid="{00000000-0004-0000-0200-000017000000}"/>
-    <hyperlink ref="L14" r:id="rId25" xr:uid="{00000000-0004-0000-0200-000018000000}"/>
-    <hyperlink ref="M14" r:id="rId26" xr:uid="{00000000-0004-0000-0200-000019000000}"/>
-    <hyperlink ref="L15" r:id="rId27" xr:uid="{00000000-0004-0000-0200-00001A000000}"/>
-    <hyperlink ref="M15" r:id="rId28" xr:uid="{00000000-0004-0000-0200-00001B000000}"/>
-    <hyperlink ref="L16" r:id="rId29" xr:uid="{00000000-0004-0000-0200-00001C000000}"/>
-    <hyperlink ref="M16" r:id="rId30" xr:uid="{00000000-0004-0000-0200-00001D000000}"/>
-    <hyperlink ref="L17" r:id="rId31" xr:uid="{00000000-0004-0000-0200-00001E000000}"/>
-    <hyperlink ref="M17" r:id="rId32" xr:uid="{00000000-0004-0000-0200-00001F000000}"/>
-    <hyperlink ref="L18" r:id="rId33" xr:uid="{00000000-0004-0000-0200-000020000000}"/>
-    <hyperlink ref="M18" r:id="rId34" xr:uid="{00000000-0004-0000-0200-000021000000}"/>
-    <hyperlink ref="L19" r:id="rId35" xr:uid="{00000000-0004-0000-0200-000022000000}"/>
-    <hyperlink ref="M19" r:id="rId36" xr:uid="{00000000-0004-0000-0200-000023000000}"/>
-    <hyperlink ref="L20" r:id="rId37" xr:uid="{00000000-0004-0000-0200-000024000000}"/>
-    <hyperlink ref="M20" r:id="rId38" xr:uid="{00000000-0004-0000-0200-000025000000}"/>
-    <hyperlink ref="L21" r:id="rId39" xr:uid="{00000000-0004-0000-0200-000026000000}"/>
-    <hyperlink ref="M21" r:id="rId40" xr:uid="{00000000-0004-0000-0200-000027000000}"/>
-    <hyperlink ref="L22" r:id="rId41" xr:uid="{00000000-0004-0000-0200-000028000000}"/>
-    <hyperlink ref="M22" r:id="rId42" xr:uid="{00000000-0004-0000-0200-000029000000}"/>
-    <hyperlink ref="L23" r:id="rId43" xr:uid="{00000000-0004-0000-0200-00002A000000}"/>
-    <hyperlink ref="M23" r:id="rId44" xr:uid="{00000000-0004-0000-0200-00002B000000}"/>
-    <hyperlink ref="L24" r:id="rId45" xr:uid="{00000000-0004-0000-0200-00002C000000}"/>
-    <hyperlink ref="M24" r:id="rId46" xr:uid="{00000000-0004-0000-0200-00002D000000}"/>
-    <hyperlink ref="L25" r:id="rId47" xr:uid="{00000000-0004-0000-0200-00002E000000}"/>
-    <hyperlink ref="M25" r:id="rId48" xr:uid="{00000000-0004-0000-0200-00002F000000}"/>
-    <hyperlink ref="L26" r:id="rId49" xr:uid="{00000000-0004-0000-0200-000030000000}"/>
-    <hyperlink ref="M26" r:id="rId50" xr:uid="{00000000-0004-0000-0200-000031000000}"/>
-    <hyperlink ref="L27" r:id="rId51" xr:uid="{00000000-0004-0000-0200-000032000000}"/>
-    <hyperlink ref="M27" r:id="rId52" xr:uid="{00000000-0004-0000-0200-000033000000}"/>
-    <hyperlink ref="L28" r:id="rId53" xr:uid="{00000000-0004-0000-0200-000034000000}"/>
-    <hyperlink ref="M28" r:id="rId54" xr:uid="{00000000-0004-0000-0200-000035000000}"/>
-    <hyperlink ref="L29" r:id="rId55" xr:uid="{00000000-0004-0000-0200-000036000000}"/>
-    <hyperlink ref="M29" r:id="rId56" xr:uid="{00000000-0004-0000-0200-000037000000}"/>
-    <hyperlink ref="L30" r:id="rId57" xr:uid="{00000000-0004-0000-0200-000038000000}"/>
-    <hyperlink ref="M30" r:id="rId58" xr:uid="{00000000-0004-0000-0200-000039000000}"/>
-    <hyperlink ref="L31" r:id="rId59" xr:uid="{00000000-0004-0000-0200-00003A000000}"/>
-    <hyperlink ref="M31" r:id="rId60" xr:uid="{00000000-0004-0000-0200-00003B000000}"/>
-    <hyperlink ref="L32" r:id="rId61" xr:uid="{00000000-0004-0000-0200-00003C000000}"/>
-    <hyperlink ref="M32" r:id="rId62" xr:uid="{00000000-0004-0000-0200-00003D000000}"/>
-    <hyperlink ref="L33" r:id="rId63" xr:uid="{00000000-0004-0000-0200-00003E000000}"/>
-    <hyperlink ref="M33" r:id="rId64" xr:uid="{00000000-0004-0000-0200-00003F000000}"/>
-    <hyperlink ref="K10" r:id="rId65" xr:uid="{048F3BF6-7405-478F-8872-E8E50DBE1498}"/>
-    <hyperlink ref="K17" r:id="rId66" display="https://github.com/ricardorocha86/PrevisaoEsportiva/blob/main/FotoJogadores/Slide1.JPG?raw=true" xr:uid="{7B113DB5-8570-46E6-9038-44ABB6841B01}"/>
-    <hyperlink ref="K22" r:id="rId67" display="https://github.com/ricardorocha86/PrevisaoEsportiva/blob/main/FotoJogadores/Slide1.JPG?raw=true" xr:uid="{76D505AD-6502-427F-A3CF-BB4D27AFA301}"/>
-    <hyperlink ref="K26" r:id="rId68" display="https://github.com/ricardorocha86/PrevisaoEsportiva/blob/main/FotoJogadores/Slide1.JPG?raw=true" xr:uid="{BB2E1AA6-21E5-43A3-B872-18963F990D9F}"/>
-    <hyperlink ref="K29" r:id="rId69" display="https://github.com/ricardorocha86/PrevisaoEsportiva/blob/main/FotoJogadores/Slide1.JPG?raw=true" xr:uid="{C4867CDD-DD4E-4047-AE61-FE687E39A004}"/>
-    <hyperlink ref="K23" r:id="rId70" display="https://github.com/ricardorocha86/PrevisaoEsportiva/blob/main/FotoJogadores/Slide1.JPG?raw=true" xr:uid="{53CCEA44-3836-4A21-93F6-1EF4B26FB3E6}"/>
-    <hyperlink ref="K21" r:id="rId71" display="https://github.com/ricardorocha86/PrevisaoEsportiva/blob/main/FotoJogadores/Slide1.JPG?raw=true" xr:uid="{C11AC572-2BB3-4D6B-B7E2-C655493DEF76}"/>
-    <hyperlink ref="K25" r:id="rId72" display="https://github.com/ricardorocha86/PrevisaoEsportiva/blob/main/FotoJogadores/Slide1.JPG?raw=true" xr:uid="{761E5EAE-1EA6-46AC-A3E8-F8C745607105}"/>
-    <hyperlink ref="K15" r:id="rId73" display="https://github.com/ricardorocha86/PrevisaoEsportiva/blob/main/FotoJogadores/Slide1.JPG?raw=true" xr:uid="{82AA6892-43FC-4F1C-86AC-0F99AF11BD51}"/>
-    <hyperlink ref="K3" r:id="rId74" display="https://github.com/ricardorocha86/PrevisaoEsportiva/blob/main/FotoJogadores/Slide1.JPG?raw=true" xr:uid="{B1B741A1-855F-44B4-B45C-9C463EB731B8}"/>
-    <hyperlink ref="K6" r:id="rId75" display="https://github.com/ricardorocha86/PrevisaoEsportiva/blob/main/FotoJogadores/Slide1.JPG?raw=true" xr:uid="{AE9551C1-C199-4AFA-B3EE-69082C3F71EC}"/>
-    <hyperlink ref="K14" r:id="rId76" display="https://github.com/ricardorocha86/PrevisaoEsportiva/blob/main/FotoJogadores/Slide1.JPG?raw=true" xr:uid="{125D098A-EA34-4227-A07F-3CAA1A1E6541}"/>
-    <hyperlink ref="K19" r:id="rId77" display="https://github.com/ricardorocha86/PrevisaoEsportiva/blob/main/FotoJogadores/Slide1.JPG?raw=true" xr:uid="{5A3E8DF2-43FA-4283-8F4F-2C965DB2ECD6}"/>
-    <hyperlink ref="K31" r:id="rId78" display="https://github.com/ricardorocha86/PrevisaoEsportiva/blob/main/FotoJogadores/Slide1.JPG?raw=true" xr:uid="{8AC871AF-69AB-426D-8824-BBDC1696C52F}"/>
-    <hyperlink ref="K7" r:id="rId79" display="https://github.com/ricardorocha86/PrevisaoEsportiva/blob/main/FotoJogadores/Slide1.JPG?raw=true" xr:uid="{C7BA88BF-AE89-4D65-8BF3-A26F2171C129}"/>
-    <hyperlink ref="K20" r:id="rId80" display="https://github.com/ricardorocha86/PrevisaoEsportiva/blob/main/FotoJogadores/Slide1.JPG?raw=true" xr:uid="{0681951D-BEF4-4453-AD85-FC7537A6D673}"/>
-    <hyperlink ref="K12" r:id="rId81" display="https://github.com/ricardorocha86/PrevisaoEsportiva/blob/main/FotoJogadores/Slide1.JPG?raw=true" xr:uid="{07AD664F-EF9A-43E2-BAA6-DA8B013C448A}"/>
-    <hyperlink ref="K24" r:id="rId82" display="https://github.com/ricardorocha86/PrevisaoEsportiva/blob/main/FotoJogadores/Slide1.JPG?raw=true" xr:uid="{10316B4C-D3BC-4953-9D1E-48FE2C938BF1}"/>
-    <hyperlink ref="K5" r:id="rId83" display="https://github.com/ricardorocha86/PrevisaoEsportiva/blob/main/FotoJogadores/Slide1.JPG?raw=true" xr:uid="{BFA2501D-BEBB-47CC-8845-C11A8E0102E8}"/>
-    <hyperlink ref="K13" r:id="rId84" display="https://github.com/ricardorocha86/PrevisaoEsportiva/blob/main/FotoJogadores/Slide1.JPG?raw=true" xr:uid="{A99F44B5-54C7-4324-9A44-DA125DACAF71}"/>
-    <hyperlink ref="K30" r:id="rId85" display="https://github.com/ricardorocha86/PrevisaoEsportiva/blob/main/FotoJogadores/Slide1.JPG?raw=true" xr:uid="{1ED351FC-1A8D-4557-846C-B6607682F91B}"/>
-    <hyperlink ref="K2" r:id="rId86" display="https://github.com/ricardorocha86/PrevisaoEsportiva/blob/main/FotoJogadores/Slide1.JPG?raw=true" xr:uid="{B9FA43B0-0B7F-43FD-BF39-C184F35F0099}"/>
-    <hyperlink ref="K11" r:id="rId87" display="https://github.com/ricardorocha86/PrevisaoEsportiva/blob/main/FotoJogadores/Slide1.JPG?raw=true" xr:uid="{5FCEAB6D-989C-466C-A9A1-1DD79B782C5D}"/>
-    <hyperlink ref="K4" r:id="rId88" display="https://github.com/ricardorocha86/PrevisaoEsportiva/blob/main/FotoJogadores/Slide1.JPG?raw=true" xr:uid="{0BB9B5B2-509B-4F5F-8DA9-802FE9D1D907}"/>
-    <hyperlink ref="K27" r:id="rId89" display="https://github.com/ricardorocha86/PrevisaoEsportiva/blob/main/FotoJogadores/Slide1.JPG?raw=true" xr:uid="{39762A2F-7C7F-49D3-BCF5-1F0CAAD4F20A}"/>
-    <hyperlink ref="K33" r:id="rId90" display="https://github.com/ricardorocha86/PrevisaoEsportiva/blob/main/FotoJogadores/Slide1.JPG?raw=true" xr:uid="{EF104C8A-9374-4F8D-8B4C-82126CE449A6}"/>
-    <hyperlink ref="K18" r:id="rId91" display="https://github.com/ricardorocha86/PrevisaoEsportiva/blob/main/FotoJogadores/Slide1.JPG?raw=true" xr:uid="{B9CFE2A7-8BB9-4381-9CBC-C3936682898F}"/>
-    <hyperlink ref="K28" r:id="rId92" display="https://github.com/ricardorocha86/PrevisaoEsportiva/blob/main/FotoJogadores/Slide1.JPG?raw=true" xr:uid="{DCEA36DA-D36D-44E3-B2A9-2969AA6C1B3E}"/>
-    <hyperlink ref="K16" r:id="rId93" display="https://github.com/ricardorocha86/PrevisaoEsportiva/blob/main/FotoJogadores/Slide1.JPG?raw=true" xr:uid="{C56F2C1C-28CD-45FF-9EE5-6882A3E12681}"/>
-    <hyperlink ref="K8" r:id="rId94" display="https://github.com/ricardorocha86/PrevisaoEsportiva/blob/main/FotoJogadores/Slide1.JPG?raw=true" xr:uid="{9B094A58-3C29-4D19-BFD6-07A435F16A94}"/>
-    <hyperlink ref="K32" r:id="rId95" display="https://github.com/ricardorocha86/PrevisaoEsportiva/blob/main/FotoJogadores/Slide1.JPG?raw=true" xr:uid="{32699BC3-ADFB-43A7-825F-717023499B91}"/>
-    <hyperlink ref="K9" r:id="rId96" display="https://github.com/ricardorocha86/PrevisaoEsportiva/blob/main/FotoJogadores/Slide1.JPG?raw=true" xr:uid="{3F514E18-E7DF-4CFF-ABD7-E71F565FCDEA}"/>
+    <hyperlink ref="L3" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
+    <hyperlink ref="M3" r:id="rId3" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
+    <hyperlink ref="L4" r:id="rId4" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
+    <hyperlink ref="M4" r:id="rId5" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
+    <hyperlink ref="L5" r:id="rId6" xr:uid="{00000000-0004-0000-0200-000006000000}"/>
+    <hyperlink ref="M5" r:id="rId7" xr:uid="{00000000-0004-0000-0200-000007000000}"/>
+    <hyperlink ref="L6" r:id="rId8" xr:uid="{00000000-0004-0000-0200-000008000000}"/>
+    <hyperlink ref="M6" r:id="rId9" xr:uid="{00000000-0004-0000-0200-000009000000}"/>
+    <hyperlink ref="L7" r:id="rId10" xr:uid="{00000000-0004-0000-0200-00000A000000}"/>
+    <hyperlink ref="M7" r:id="rId11" xr:uid="{00000000-0004-0000-0200-00000B000000}"/>
+    <hyperlink ref="L8" r:id="rId12" xr:uid="{00000000-0004-0000-0200-00000C000000}"/>
+    <hyperlink ref="M8" r:id="rId13" xr:uid="{00000000-0004-0000-0200-00000D000000}"/>
+    <hyperlink ref="L9" r:id="rId14" xr:uid="{00000000-0004-0000-0200-00000E000000}"/>
+    <hyperlink ref="M9" r:id="rId15" xr:uid="{00000000-0004-0000-0200-00000F000000}"/>
+    <hyperlink ref="L10" r:id="rId16" xr:uid="{00000000-0004-0000-0200-000010000000}"/>
+    <hyperlink ref="M10" r:id="rId17" xr:uid="{00000000-0004-0000-0200-000011000000}"/>
+    <hyperlink ref="L11" r:id="rId18" xr:uid="{00000000-0004-0000-0200-000012000000}"/>
+    <hyperlink ref="M11" r:id="rId19" xr:uid="{00000000-0004-0000-0200-000013000000}"/>
+    <hyperlink ref="L12" r:id="rId20" xr:uid="{00000000-0004-0000-0200-000014000000}"/>
+    <hyperlink ref="M12" r:id="rId21" xr:uid="{00000000-0004-0000-0200-000015000000}"/>
+    <hyperlink ref="L13" r:id="rId22" xr:uid="{00000000-0004-0000-0200-000016000000}"/>
+    <hyperlink ref="M13" r:id="rId23" xr:uid="{00000000-0004-0000-0200-000017000000}"/>
+    <hyperlink ref="L14" r:id="rId24" xr:uid="{00000000-0004-0000-0200-000018000000}"/>
+    <hyperlink ref="M14" r:id="rId25" xr:uid="{00000000-0004-0000-0200-000019000000}"/>
+    <hyperlink ref="L15" r:id="rId26" xr:uid="{00000000-0004-0000-0200-00001A000000}"/>
+    <hyperlink ref="M15" r:id="rId27" xr:uid="{00000000-0004-0000-0200-00001B000000}"/>
+    <hyperlink ref="L16" r:id="rId28" xr:uid="{00000000-0004-0000-0200-00001C000000}"/>
+    <hyperlink ref="M16" r:id="rId29" xr:uid="{00000000-0004-0000-0200-00001D000000}"/>
+    <hyperlink ref="L17" r:id="rId30" xr:uid="{00000000-0004-0000-0200-00001E000000}"/>
+    <hyperlink ref="M17" r:id="rId31" xr:uid="{00000000-0004-0000-0200-00001F000000}"/>
+    <hyperlink ref="L18" r:id="rId32" xr:uid="{00000000-0004-0000-0200-000020000000}"/>
+    <hyperlink ref="M18" r:id="rId33" xr:uid="{00000000-0004-0000-0200-000021000000}"/>
+    <hyperlink ref="L19" r:id="rId34" xr:uid="{00000000-0004-0000-0200-000022000000}"/>
+    <hyperlink ref="M19" r:id="rId35" xr:uid="{00000000-0004-0000-0200-000023000000}"/>
+    <hyperlink ref="L20" r:id="rId36" xr:uid="{00000000-0004-0000-0200-000024000000}"/>
+    <hyperlink ref="M20" r:id="rId37" xr:uid="{00000000-0004-0000-0200-000025000000}"/>
+    <hyperlink ref="L21" r:id="rId38" xr:uid="{00000000-0004-0000-0200-000026000000}"/>
+    <hyperlink ref="M21" r:id="rId39" xr:uid="{00000000-0004-0000-0200-000027000000}"/>
+    <hyperlink ref="L22" r:id="rId40" xr:uid="{00000000-0004-0000-0200-000028000000}"/>
+    <hyperlink ref="L23" r:id="rId41" xr:uid="{00000000-0004-0000-0200-00002A000000}"/>
+    <hyperlink ref="M23" r:id="rId42" xr:uid="{00000000-0004-0000-0200-00002B000000}"/>
+    <hyperlink ref="L24" r:id="rId43" xr:uid="{00000000-0004-0000-0200-00002C000000}"/>
+    <hyperlink ref="M24" r:id="rId44" xr:uid="{00000000-0004-0000-0200-00002D000000}"/>
+    <hyperlink ref="L25" r:id="rId45" xr:uid="{00000000-0004-0000-0200-00002E000000}"/>
+    <hyperlink ref="M25" r:id="rId46" xr:uid="{00000000-0004-0000-0200-00002F000000}"/>
+    <hyperlink ref="L26" r:id="rId47" xr:uid="{00000000-0004-0000-0200-000030000000}"/>
+    <hyperlink ref="L27" r:id="rId48" xr:uid="{00000000-0004-0000-0200-000032000000}"/>
+    <hyperlink ref="M27" r:id="rId49" xr:uid="{00000000-0004-0000-0200-000033000000}"/>
+    <hyperlink ref="L28" r:id="rId50" xr:uid="{00000000-0004-0000-0200-000034000000}"/>
+    <hyperlink ref="M28" r:id="rId51" xr:uid="{00000000-0004-0000-0200-000035000000}"/>
+    <hyperlink ref="L29" r:id="rId52" xr:uid="{00000000-0004-0000-0200-000036000000}"/>
+    <hyperlink ref="M29" r:id="rId53" xr:uid="{00000000-0004-0000-0200-000037000000}"/>
+    <hyperlink ref="L30" r:id="rId54" xr:uid="{00000000-0004-0000-0200-000038000000}"/>
+    <hyperlink ref="M30" r:id="rId55" xr:uid="{00000000-0004-0000-0200-000039000000}"/>
+    <hyperlink ref="L31" r:id="rId56" xr:uid="{00000000-0004-0000-0200-00003A000000}"/>
+    <hyperlink ref="M31" r:id="rId57" xr:uid="{00000000-0004-0000-0200-00003B000000}"/>
+    <hyperlink ref="L32" r:id="rId58" xr:uid="{00000000-0004-0000-0200-00003C000000}"/>
+    <hyperlink ref="M32" r:id="rId59" xr:uid="{00000000-0004-0000-0200-00003D000000}"/>
+    <hyperlink ref="L33" r:id="rId60" xr:uid="{00000000-0004-0000-0200-00003E000000}"/>
+    <hyperlink ref="M33" r:id="rId61" xr:uid="{00000000-0004-0000-0200-00003F000000}"/>
+    <hyperlink ref="K10" r:id="rId62" xr:uid="{048F3BF6-7405-478F-8872-E8E50DBE1498}"/>
+    <hyperlink ref="K17" r:id="rId63" display="https://github.com/ricardorocha86/PrevisaoEsportiva/blob/main/FotoJogadores/Slide1.JPG?raw=true" xr:uid="{7B113DB5-8570-46E6-9038-44ABB6841B01}"/>
+    <hyperlink ref="K22" r:id="rId64" display="https://github.com/ricardorocha86/PrevisaoEsportiva/blob/main/FotoJogadores/Slide1.JPG?raw=true" xr:uid="{76D505AD-6502-427F-A3CF-BB4D27AFA301}"/>
+    <hyperlink ref="K26" r:id="rId65" display="https://github.com/ricardorocha86/PrevisaoEsportiva/blob/main/FotoJogadores/Slide1.JPG?raw=true" xr:uid="{BB2E1AA6-21E5-43A3-B872-18963F990D9F}"/>
+    <hyperlink ref="K29" r:id="rId66" display="https://github.com/ricardorocha86/PrevisaoEsportiva/blob/main/FotoJogadores/Slide1.JPG?raw=true" xr:uid="{C4867CDD-DD4E-4047-AE61-FE687E39A004}"/>
+    <hyperlink ref="K23" r:id="rId67" display="https://github.com/ricardorocha86/PrevisaoEsportiva/blob/main/FotoJogadores/Slide1.JPG?raw=true" xr:uid="{53CCEA44-3836-4A21-93F6-1EF4B26FB3E6}"/>
+    <hyperlink ref="K21" r:id="rId68" display="https://github.com/ricardorocha86/PrevisaoEsportiva/blob/main/FotoJogadores/Slide1.JPG?raw=true" xr:uid="{C11AC572-2BB3-4D6B-B7E2-C655493DEF76}"/>
+    <hyperlink ref="K25" r:id="rId69" display="https://github.com/ricardorocha86/PrevisaoEsportiva/blob/main/FotoJogadores/Slide1.JPG?raw=true" xr:uid="{761E5EAE-1EA6-46AC-A3E8-F8C745607105}"/>
+    <hyperlink ref="K15" r:id="rId70" display="https://github.com/ricardorocha86/PrevisaoEsportiva/blob/main/FotoJogadores/Slide1.JPG?raw=true" xr:uid="{82AA6892-43FC-4F1C-86AC-0F99AF11BD51}"/>
+    <hyperlink ref="K3" r:id="rId71" display="https://github.com/ricardorocha86/PrevisaoEsportiva/blob/main/FotoJogadores/Slide1.JPG?raw=true" xr:uid="{B1B741A1-855F-44B4-B45C-9C463EB731B8}"/>
+    <hyperlink ref="K6" r:id="rId72" display="https://github.com/ricardorocha86/PrevisaoEsportiva/blob/main/FotoJogadores/Slide1.JPG?raw=true" xr:uid="{AE9551C1-C199-4AFA-B3EE-69082C3F71EC}"/>
+    <hyperlink ref="K14" r:id="rId73" display="https://github.com/ricardorocha86/PrevisaoEsportiva/blob/main/FotoJogadores/Slide1.JPG?raw=true" xr:uid="{125D098A-EA34-4227-A07F-3CAA1A1E6541}"/>
+    <hyperlink ref="K19" r:id="rId74" display="https://github.com/ricardorocha86/PrevisaoEsportiva/blob/main/FotoJogadores/Slide1.JPG?raw=true" xr:uid="{5A3E8DF2-43FA-4283-8F4F-2C965DB2ECD6}"/>
+    <hyperlink ref="K31" r:id="rId75" display="https://github.com/ricardorocha86/PrevisaoEsportiva/blob/main/FotoJogadores/Slide1.JPG?raw=true" xr:uid="{8AC871AF-69AB-426D-8824-BBDC1696C52F}"/>
+    <hyperlink ref="K7" r:id="rId76" display="https://github.com/ricardorocha86/PrevisaoEsportiva/blob/main/FotoJogadores/Slide1.JPG?raw=true" xr:uid="{C7BA88BF-AE89-4D65-8BF3-A26F2171C129}"/>
+    <hyperlink ref="K20" r:id="rId77" display="https://github.com/ricardorocha86/PrevisaoEsportiva/blob/main/FotoJogadores/Slide1.JPG?raw=true" xr:uid="{0681951D-BEF4-4453-AD85-FC7537A6D673}"/>
+    <hyperlink ref="K12" r:id="rId78" display="https://github.com/ricardorocha86/PrevisaoEsportiva/blob/main/FotoJogadores/Slide1.JPG?raw=true" xr:uid="{07AD664F-EF9A-43E2-BAA6-DA8B013C448A}"/>
+    <hyperlink ref="K24" r:id="rId79" display="https://github.com/ricardorocha86/PrevisaoEsportiva/blob/main/FotoJogadores/Slide1.JPG?raw=true" xr:uid="{10316B4C-D3BC-4953-9D1E-48FE2C938BF1}"/>
+    <hyperlink ref="K5" r:id="rId80" display="https://github.com/ricardorocha86/PrevisaoEsportiva/blob/main/FotoJogadores/Slide1.JPG?raw=true" xr:uid="{BFA2501D-BEBB-47CC-8845-C11A8E0102E8}"/>
+    <hyperlink ref="K13" r:id="rId81" display="https://github.com/ricardorocha86/PrevisaoEsportiva/blob/main/FotoJogadores/Slide1.JPG?raw=true" xr:uid="{A99F44B5-54C7-4324-9A44-DA125DACAF71}"/>
+    <hyperlink ref="K30" r:id="rId82" display="https://github.com/ricardorocha86/PrevisaoEsportiva/blob/main/FotoJogadores/Slide1.JPG?raw=true" xr:uid="{1ED351FC-1A8D-4557-846C-B6607682F91B}"/>
+    <hyperlink ref="K2" r:id="rId83" display="https://github.com/ricardorocha86/PrevisaoEsportiva/blob/main/FotoJogadores/Slide1.JPG?raw=true" xr:uid="{B9FA43B0-0B7F-43FD-BF39-C184F35F0099}"/>
+    <hyperlink ref="K11" r:id="rId84" display="https://github.com/ricardorocha86/PrevisaoEsportiva/blob/main/FotoJogadores/Slide1.JPG?raw=true" xr:uid="{5FCEAB6D-989C-466C-A9A1-1DD79B782C5D}"/>
+    <hyperlink ref="K4" r:id="rId85" display="https://github.com/ricardorocha86/PrevisaoEsportiva/blob/main/FotoJogadores/Slide1.JPG?raw=true" xr:uid="{0BB9B5B2-509B-4F5F-8DA9-802FE9D1D907}"/>
+    <hyperlink ref="K27" r:id="rId86" display="https://github.com/ricardorocha86/PrevisaoEsportiva/blob/main/FotoJogadores/Slide1.JPG?raw=true" xr:uid="{39762A2F-7C7F-49D3-BCF5-1F0CAAD4F20A}"/>
+    <hyperlink ref="K33" r:id="rId87" display="https://github.com/ricardorocha86/PrevisaoEsportiva/blob/main/FotoJogadores/Slide1.JPG?raw=true" xr:uid="{EF104C8A-9374-4F8D-8B4C-82126CE449A6}"/>
+    <hyperlink ref="K18" r:id="rId88" display="https://github.com/ricardorocha86/PrevisaoEsportiva/blob/main/FotoJogadores/Slide1.JPG?raw=true" xr:uid="{B9CFE2A7-8BB9-4381-9CBC-C3936682898F}"/>
+    <hyperlink ref="K28" r:id="rId89" display="https://github.com/ricardorocha86/PrevisaoEsportiva/blob/main/FotoJogadores/Slide1.JPG?raw=true" xr:uid="{DCEA36DA-D36D-44E3-B2A9-2969AA6C1B3E}"/>
+    <hyperlink ref="K16" r:id="rId90" display="https://github.com/ricardorocha86/PrevisaoEsportiva/blob/main/FotoJogadores/Slide1.JPG?raw=true" xr:uid="{C56F2C1C-28CD-45FF-9EE5-6882A3E12681}"/>
+    <hyperlink ref="K8" r:id="rId91" display="https://github.com/ricardorocha86/PrevisaoEsportiva/blob/main/FotoJogadores/Slide1.JPG?raw=true" xr:uid="{9B094A58-3C29-4D19-BFD6-07A435F16A94}"/>
+    <hyperlink ref="K32" r:id="rId92" display="https://github.com/ricardorocha86/PrevisaoEsportiva/blob/main/FotoJogadores/Slide1.JPG?raw=true" xr:uid="{32699BC3-ADFB-43A7-825F-717023499B91}"/>
+    <hyperlink ref="K9" r:id="rId93" display="https://github.com/ricardorocha86/PrevisaoEsportiva/blob/main/FotoJogadores/Slide1.JPG?raw=true" xr:uid="{3F514E18-E7DF-4CFF-ABD7-E71F565FCDEA}"/>
+    <hyperlink ref="M2" r:id="rId94" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0" footer="0"/>
-  <pageSetup orientation="landscape" r:id="rId97"/>
+  <pageSetup orientation="landscape" r:id="rId95"/>
 </worksheet>
 </file>
 
@@ -2660,7 +2663,7 @@
   <dimension ref="A1:F1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2672,24 +2675,24 @@
     <col min="6" max="6" width="16.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>210</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -2706,10 +2709,10 @@
         <v>8</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -2723,13 +2726,13 @@
         <v>43</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -2743,13 +2746,13 @@
         <v>43</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>8</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -2763,13 +2766,13 @@
         <v>43</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -2783,13 +2786,13 @@
         <v>43</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -2803,13 +2806,13 @@
         <v>43</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>8</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -2823,13 +2826,13 @@
         <v>63</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>62</v>
+        <v>22</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>68</v>
+        <v>3</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -2843,13 +2846,13 @@
         <v>63</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>73</v>
+        <v>260</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>79</v>
+        <v>35</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -2863,13 +2866,13 @@
         <v>63</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>79</v>
+        <v>35</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>68</v>
+        <v>3</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -2883,13 +2886,13 @@
         <v>63</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>62</v>
+        <v>22</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>73</v>
+        <v>260</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -2903,13 +2906,13 @@
         <v>63</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>79</v>
+        <v>35</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>62</v>
+        <v>22</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -2923,13 +2926,13 @@
         <v>63</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>68</v>
+        <v>3</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>73</v>
+        <v>260</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -2946,10 +2949,10 @@
         <v>19</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>89</v>
+        <v>5</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -2963,13 +2966,13 @@
         <v>84</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>94</v>
+        <v>15</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>99</v>
+        <v>33</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -2983,13 +2986,13 @@
         <v>84</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>99</v>
+        <v>33</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>89</v>
+        <v>5</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -3006,10 +3009,10 @@
         <v>19</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>94</v>
+        <v>15</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -3023,13 +3026,13 @@
         <v>84</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>99</v>
+        <v>33</v>
       </c>
       <c r="E18" s="6" t="s">
         <v>19</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -3043,13 +3046,13 @@
         <v>84</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>89</v>
+        <v>5</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>94</v>
+        <v>15</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -3063,13 +3066,13 @@
         <v>105</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>110</v>
+        <v>31</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>115</v>
+        <v>12</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -3083,13 +3086,13 @@
         <v>105</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>104</v>
+        <v>24</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>120</v>
+        <v>4</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -3103,13 +3106,13 @@
         <v>105</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>115</v>
+        <v>12</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>120</v>
+        <v>4</v>
       </c>
       <c r="F22" s="12" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -3123,13 +3126,13 @@
         <v>105</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>104</v>
+        <v>24</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>110</v>
+        <v>31</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -3143,13 +3146,13 @@
         <v>105</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>115</v>
+        <v>12</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>104</v>
+        <v>24</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -3163,13 +3166,13 @@
         <v>105</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>120</v>
+        <v>4</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>110</v>
+        <v>31</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -3183,13 +3186,13 @@
         <v>126</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>131</v>
+        <v>26</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>136</v>
+        <v>2</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -3203,13 +3206,13 @@
         <v>126</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>125</v>
+        <v>27</v>
       </c>
       <c r="E27" s="6" t="s">
         <v>16</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -3223,13 +3226,13 @@
         <v>126</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>136</v>
+        <v>2</v>
       </c>
       <c r="E28" s="6" t="s">
         <v>16</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -3243,13 +3246,13 @@
         <v>126</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>125</v>
+        <v>27</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>131</v>
+        <v>26</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -3263,13 +3266,13 @@
         <v>126</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>136</v>
+        <v>2</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>125</v>
+        <v>27</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -3286,10 +3289,10 @@
         <v>16</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>131</v>
+        <v>26</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -3303,13 +3306,13 @@
         <v>146</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>156</v>
+        <v>9</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>161</v>
+        <v>30</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -3323,13 +3326,13 @@
         <v>146</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>145</v>
+        <v>29</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>151</v>
+        <v>14</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -3343,13 +3346,13 @@
         <v>146</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>145</v>
+        <v>29</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>156</v>
+        <v>9</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -3363,13 +3366,13 @@
         <v>146</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>161</v>
+        <v>30</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>151</v>
+        <v>14</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -3383,13 +3386,13 @@
         <v>146</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>161</v>
+        <v>30</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>145</v>
+        <v>29</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -3403,13 +3406,13 @@
         <v>146</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>151</v>
+        <v>14</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>156</v>
+        <v>9</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -3420,16 +3423,16 @@
         <v>0.29166666666666669</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>177</v>
+        <v>34</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>182</v>
+        <v>11</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.35">
@@ -3440,16 +3443,16 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>166</v>
+        <v>17</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>172</v>
+        <v>32</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.35">
@@ -3460,16 +3463,16 @@
         <v>0.29166666666666669</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>182</v>
+        <v>11</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>172</v>
+        <v>32</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.35">
@@ -3480,16 +3483,16 @@
         <v>0.54166666666666663</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>166</v>
+        <v>17</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>177</v>
+        <v>34</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.35">
@@ -3500,16 +3503,16 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>182</v>
+        <v>11</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>166</v>
+        <v>17</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.35">
@@ -3520,16 +3523,16 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>172</v>
+        <v>32</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>177</v>
+        <v>34</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.35">
@@ -3540,16 +3543,16 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>197</v>
+        <v>20</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>202</v>
+        <v>0</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.35">
@@ -3560,16 +3563,16 @@
         <v>0.54166666666666663</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D45" s="6" t="s">
         <v>25</v>
       </c>
       <c r="E45" s="6" t="s">
-        <v>192</v>
+        <v>10</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.35">
@@ -3580,16 +3583,16 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>202</v>
+        <v>0</v>
       </c>
       <c r="E46" s="6" t="s">
-        <v>192</v>
+        <v>10</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.35">
@@ -3600,16 +3603,16 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D47" s="6" t="s">
         <v>25</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>197</v>
+        <v>20</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.35">
@@ -3620,16 +3623,16 @@
         <v>0.5</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>202</v>
+        <v>0</v>
       </c>
       <c r="E48" s="6" t="s">
         <v>25</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.35">
@@ -3640,16 +3643,16 @@
         <v>0.5</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>192</v>
+        <v>10</v>
       </c>
       <c r="E49" s="6" t="s">
-        <v>197</v>
+        <v>20</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">

--- a/dados/DadosCopaDoMundoQatar2022.xlsx
+++ b/dados/DadosCopaDoMundoQatar2022.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://paccar-my.sharepoint.com/personal/emanuel_neves_paccar_com/Documents/Documents/WorldCupSimulator/dados/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="40" documentId="13_ncr:1_{62B1251A-DB48-4798-A108-B5328F2DB5FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{05F12033-B8DA-4CA0-80BB-BFDA97FB6B4E}"/>
+  <xr:revisionPtr revIDLastSave="43" documentId="13_ncr:1_{62B1251A-DB48-4798-A108-B5328F2DB5FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7B97654B-70F9-4EE7-B670-85811722B623}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="10944" yWindow="1560" windowWidth="11172" windowHeight="9060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="selecoes" sheetId="3" r:id="rId1"/>
     <sheet name="jogos" sheetId="5" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">selecoes!$A$1:$M$1000</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0">selecoes!$B$1:$M$1000</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1172,16 +1172,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="V9" sqref="V9"/>
+    <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.6640625" style="11" customWidth="1"/>
+    <col min="1" max="1" width="19.88671875" style="11" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.109375" style="11" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.88671875" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" style="11" customWidth="1"/>
     <col min="5" max="5" width="12.33203125" style="11" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.33203125" style="11" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18.6640625" style="11" bestFit="1" customWidth="1"/>
@@ -1197,7 +1197,7 @@
   <sheetData>
     <row r="1" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
-        <v>259</v>
+        <v>36</v>
       </c>
       <c r="B1" s="10" t="s">
         <v>37</v>
@@ -1206,7 +1206,7 @@
         <v>38</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>36</v>
+        <v>259</v>
       </c>
       <c r="E1" s="10" t="s">
         <v>224</v>
@@ -1238,7 +1238,7 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" s="11" t="s">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>43</v>
@@ -1247,7 +1247,7 @@
         <v>44</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="E2" s="11">
         <v>48</v>
@@ -1279,7 +1279,7 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" s="11" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>43</v>
@@ -1288,7 +1288,7 @@
         <v>49</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="E3" s="11">
         <v>44</v>
@@ -1361,7 +1361,7 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" s="11" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="B5" s="11" t="s">
         <v>43</v>
@@ -1370,7 +1370,7 @@
         <v>58</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>28</v>
+        <v>57</v>
       </c>
       <c r="E5" s="11">
         <v>8</v>
@@ -1402,7 +1402,7 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" s="11" t="s">
-        <v>62</v>
+        <v>22</v>
       </c>
       <c r="B6" s="11" t="s">
         <v>63</v>
@@ -1411,7 +1411,7 @@
         <v>64</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>22</v>
+        <v>62</v>
       </c>
       <c r="E6" s="11">
         <v>5</v>
@@ -1443,7 +1443,7 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" s="11" t="s">
-        <v>68</v>
+        <v>3</v>
       </c>
       <c r="B7" s="11" t="s">
         <v>63</v>
@@ -1452,7 +1452,7 @@
         <v>69</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>3</v>
+        <v>68</v>
       </c>
       <c r="E7" s="11">
         <v>22</v>
@@ -1484,7 +1484,7 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" s="11" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B8" s="11" t="s">
         <v>63</v>
@@ -1493,7 +1493,7 @@
         <v>74</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E8" s="11">
         <v>14</v>
@@ -1525,7 +1525,7 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" s="11" t="s">
-        <v>79</v>
+        <v>35</v>
       </c>
       <c r="B9" s="11" t="s">
         <v>63</v>
@@ -1534,7 +1534,7 @@
         <v>80</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>35</v>
+        <v>79</v>
       </c>
       <c r="E9" s="11">
         <v>19</v>
@@ -1607,7 +1607,7 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11" s="11" t="s">
-        <v>89</v>
+        <v>5</v>
       </c>
       <c r="B11" s="11" t="s">
         <v>84</v>
@@ -1616,7 +1616,7 @@
         <v>90</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>5</v>
+        <v>89</v>
       </c>
       <c r="E11" s="11">
         <v>53</v>
@@ -1648,7 +1648,7 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12" s="11" t="s">
-        <v>94</v>
+        <v>15</v>
       </c>
       <c r="B12" s="11" t="s">
         <v>84</v>
@@ -1657,7 +1657,7 @@
         <v>95</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>15</v>
+        <v>94</v>
       </c>
       <c r="E12" s="11">
         <v>12</v>
@@ -1689,7 +1689,7 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13" s="11" t="s">
-        <v>99</v>
+        <v>33</v>
       </c>
       <c r="B13" s="11" t="s">
         <v>84</v>
@@ -1698,7 +1698,7 @@
         <v>100</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>33</v>
+        <v>99</v>
       </c>
       <c r="E13" s="11">
         <v>26</v>
@@ -1730,7 +1730,7 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14" s="11" t="s">
-        <v>104</v>
+        <v>24</v>
       </c>
       <c r="B14" s="11" t="s">
         <v>105</v>
@@ -1739,7 +1739,7 @@
         <v>106</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>24</v>
+        <v>104</v>
       </c>
       <c r="E14" s="11">
         <v>4</v>
@@ -1771,7 +1771,7 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A15" s="11" t="s">
-        <v>110</v>
+        <v>31</v>
       </c>
       <c r="B15" s="11" t="s">
         <v>105</v>
@@ -1780,7 +1780,7 @@
         <v>111</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>31</v>
+        <v>110</v>
       </c>
       <c r="E15" s="11">
         <v>10</v>
@@ -1812,7 +1812,7 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A16" s="11" t="s">
-        <v>115</v>
+        <v>12</v>
       </c>
       <c r="B16" s="11" t="s">
         <v>105</v>
@@ -1821,7 +1821,7 @@
         <v>116</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>12</v>
+        <v>115</v>
       </c>
       <c r="E16" s="11">
         <v>30</v>
@@ -1853,7 +1853,7 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A17" s="11" t="s">
-        <v>120</v>
+        <v>4</v>
       </c>
       <c r="B17" s="11" t="s">
         <v>105</v>
@@ -1862,7 +1862,7 @@
         <v>121</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>4</v>
+        <v>120</v>
       </c>
       <c r="E17" s="11">
         <v>39</v>
@@ -1894,7 +1894,7 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A18" s="11" t="s">
-        <v>125</v>
+        <v>27</v>
       </c>
       <c r="B18" s="11" t="s">
         <v>126</v>
@@ -1903,7 +1903,7 @@
         <v>127</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>27</v>
+        <v>125</v>
       </c>
       <c r="E18" s="11">
         <v>6</v>
@@ -1935,7 +1935,7 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A19" s="11" t="s">
-        <v>131</v>
+        <v>26</v>
       </c>
       <c r="B19" s="11" t="s">
         <v>126</v>
@@ -1944,7 +1944,7 @@
         <v>132</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>26</v>
+        <v>131</v>
       </c>
       <c r="E19" s="11">
         <v>11</v>
@@ -1976,7 +1976,7 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A20" s="11" t="s">
-        <v>136</v>
+        <v>2</v>
       </c>
       <c r="B20" s="11" t="s">
         <v>126</v>
@@ -1985,7 +1985,7 @@
         <v>137</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>2</v>
+        <v>136</v>
       </c>
       <c r="E20" s="11">
         <v>24</v>
@@ -2058,7 +2058,7 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A22" s="11" t="s">
-        <v>145</v>
+        <v>29</v>
       </c>
       <c r="B22" s="11" t="s">
         <v>146</v>
@@ -2067,7 +2067,7 @@
         <v>147</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>29</v>
+        <v>145</v>
       </c>
       <c r="E22" s="11">
         <v>2</v>
@@ -2099,7 +2099,7 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A23" s="11" t="s">
-        <v>150</v>
+        <v>14</v>
       </c>
       <c r="B23" s="11" t="s">
         <v>146</v>
@@ -2108,7 +2108,7 @@
         <v>151</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>14</v>
+        <v>150</v>
       </c>
       <c r="E23" s="11">
         <v>43</v>
@@ -2140,7 +2140,7 @@
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A24" s="11" t="s">
-        <v>155</v>
+        <v>9</v>
       </c>
       <c r="B24" s="11" t="s">
         <v>146</v>
@@ -2149,7 +2149,7 @@
         <v>156</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>9</v>
+        <v>155</v>
       </c>
       <c r="E24" s="11">
         <v>23</v>
@@ -2181,7 +2181,7 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A25" s="11" t="s">
-        <v>160</v>
+        <v>30</v>
       </c>
       <c r="B25" s="11" t="s">
         <v>146</v>
@@ -2190,7 +2190,7 @@
         <v>161</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>30</v>
+        <v>160</v>
       </c>
       <c r="E25" s="11">
         <v>15</v>
@@ -2222,7 +2222,7 @@
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A26" s="11" t="s">
-        <v>165</v>
+        <v>17</v>
       </c>
       <c r="B26" s="11" t="s">
         <v>166</v>
@@ -2231,7 +2231,7 @@
         <v>167</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>17</v>
+        <v>165</v>
       </c>
       <c r="E26" s="11">
         <v>1</v>
@@ -2263,7 +2263,7 @@
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A27" s="11" t="s">
-        <v>170</v>
+        <v>32</v>
       </c>
       <c r="B27" s="11" t="s">
         <v>166</v>
@@ -2272,7 +2272,7 @@
         <v>171</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>32</v>
+        <v>170</v>
       </c>
       <c r="E27" s="11">
         <v>25</v>
@@ -2304,7 +2304,7 @@
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A28" s="11" t="s">
-        <v>175</v>
+        <v>34</v>
       </c>
       <c r="B28" s="11" t="s">
         <v>166</v>
@@ -2313,7 +2313,7 @@
         <v>176</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>34</v>
+        <v>175</v>
       </c>
       <c r="E28" s="11">
         <v>16</v>
@@ -2345,7 +2345,7 @@
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A29" s="11" t="s">
-        <v>180</v>
+        <v>11</v>
       </c>
       <c r="B29" s="11" t="s">
         <v>166</v>
@@ -2354,7 +2354,7 @@
         <v>181</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>11</v>
+        <v>180</v>
       </c>
       <c r="E29" s="11">
         <v>38</v>
@@ -2427,7 +2427,7 @@
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A31" s="11" t="s">
-        <v>190</v>
+        <v>10</v>
       </c>
       <c r="B31" s="11" t="s">
         <v>185</v>
@@ -2436,7 +2436,7 @@
         <v>191</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>10</v>
+        <v>190</v>
       </c>
       <c r="E31" s="11">
         <v>60</v>
@@ -2468,7 +2468,7 @@
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A32" s="11" t="s">
-        <v>195</v>
+        <v>20</v>
       </c>
       <c r="B32" s="11" t="s">
         <v>185</v>
@@ -2477,7 +2477,7 @@
         <v>196</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>20</v>
+        <v>195</v>
       </c>
       <c r="E32" s="11">
         <v>13</v>
@@ -2509,7 +2509,7 @@
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A33" s="11" t="s">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="B33" s="11" t="s">
         <v>185</v>
@@ -2518,7 +2518,7 @@
         <v>201</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E33" s="11">
         <v>28</v>
@@ -2549,8 +2549,8 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M1000" xr:uid="{00000000-0001-0000-0200-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M1000">
+  <autoFilter ref="B1:M1000" xr:uid="{00000000-0001-0000-0200-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:M1000">
       <sortCondition ref="C1:C1000"/>
     </sortState>
   </autoFilter>

--- a/dados/DadosCopaDoMundoQatar2022.xlsx
+++ b/dados/DadosCopaDoMundoQatar2022.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://paccar-my.sharepoint.com/personal/emanuel_neves_paccar_com/Documents/Documents/WorldCupSimulator/dados/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="43" documentId="13_ncr:1_{62B1251A-DB48-4798-A108-B5328F2DB5FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7B97654B-70F9-4EE7-B670-85811722B623}"/>
+  <xr:revisionPtr revIDLastSave="49" documentId="13_ncr:1_{62B1251A-DB48-4798-A108-B5328F2DB5FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{644B6048-C3E0-410B-980C-C8EAD3A705EE}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -823,10 +823,10 @@
     <t>USA</t>
   </si>
   <si>
-    <t>https://cloudinary.fifa.com/api/v1/picture/flags-sq-2/BRA?tx=c_fill,g_auto,q_auto,w_70,h_46</t>
-  </si>
-  <si>
-    <t>https://cloudinary.fifa.com/api/v1/picture/flags-sq-2/BEL?tx=c_fill,g_auto,q_auto,w_70,h_46</t>
+    <t>https://flagdownload.com/wp-content/uploads/Flag_of_Belgium_Flat_Round_Corner-512x512.png</t>
+  </si>
+  <si>
+    <t>https://flagdownload.com/wp-content/uploads/Flag_of_Brazil_Flat_Round_Corner-512x512.png</t>
   </si>
 </sst>
 </file>
@@ -836,7 +836,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -900,6 +900,13 @@
       <name val="Open Sans"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -918,10 +925,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -955,8 +963,10 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1172,8 +1182,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+      <selection activeCell="M26" sqref="M26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
@@ -2093,8 +2103,8 @@
       <c r="L22" s="11" t="s">
         <v>148</v>
       </c>
-      <c r="M22" s="11" t="s">
-        <v>262</v>
+      <c r="M22" s="13" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.35">
@@ -2257,8 +2267,8 @@
       <c r="L26" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="M26" s="11" t="s">
-        <v>261</v>
+      <c r="M26" s="13" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.35">
@@ -2649,9 +2659,11 @@
     <hyperlink ref="K32" r:id="rId92" display="https://github.com/ricardorocha86/PrevisaoEsportiva/blob/main/FotoJogadores/Slide1.JPG?raw=true" xr:uid="{32699BC3-ADFB-43A7-825F-717023499B91}"/>
     <hyperlink ref="K9" r:id="rId93" display="https://github.com/ricardorocha86/PrevisaoEsportiva/blob/main/FotoJogadores/Slide1.JPG?raw=true" xr:uid="{3F514E18-E7DF-4CFF-ABD7-E71F565FCDEA}"/>
     <hyperlink ref="M2" r:id="rId94" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink ref="M22" r:id="rId95" xr:uid="{CD7BAE11-AE9F-4D3D-A4D5-C4AEC836ED9A}"/>
+    <hyperlink ref="M26" r:id="rId96" xr:uid="{5E09FF4B-9092-40AB-89F6-060BC9643CCF}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0" footer="0"/>
-  <pageSetup orientation="landscape" r:id="rId95"/>
+  <pageSetup orientation="landscape" r:id="rId97"/>
 </worksheet>
 </file>
 
